--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="AssignSystemRole" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="AssignSystemRoleBonus" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -19,7 +20,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>userInfo</t>
+    <t>user_info</t>
   </si>
   <si>
     <t>manager</t>
@@ -56,13 +57,127 @@
   </si>
   <si>
     <t>Catherine Cruz (cathericruz306@example.com)</t>
+  </si>
+  <si>
+    <t>login_url</t>
+  </si>
+  <si>
+    <t>login_title</t>
+  </si>
+  <si>
+    <t>username_id_input</t>
+  </si>
+  <si>
+    <t>password_id_input</t>
+  </si>
+  <si>
+    <t>login_id_button</t>
+  </si>
+  <si>
+    <t>site_admin_id_text</t>
+  </si>
+  <si>
+    <t>users_section_id_text</t>
+  </si>
+  <si>
+    <t>assign_section_id_text</t>
+  </si>
+  <si>
+    <t>role_id_text</t>
+  </si>
+  <si>
+    <t>add_id_dropdown</t>
+  </si>
+  <si>
+    <t>remove_id_dropdown</t>
+  </si>
+  <si>
+    <t>add_id_button</t>
+  </si>
+  <si>
+    <t>remove_id_buttton</t>
+  </si>
+  <si>
+    <t>user_avatar_id</t>
+  </si>
+  <si>
+    <t>logout_id_text</t>
+  </si>
+  <si>
+    <t>https://school.moodledemo.net/login/index.php</t>
+  </si>
+  <si>
+    <t>Log in to the site | Mount Orange School</t>
+  </si>
+  <si>
+    <t>loginbtn</t>
+  </si>
+  <si>
+    <t>Site administration</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Assign system roles</t>
+  </si>
+  <si>
+    <t>Course creator</t>
+  </si>
+  <si>
+    <t>addselect</t>
+  </si>
+  <si>
+    <t>removeselect</t>
+  </si>
+  <si>
+    <t>//option[. = 'Stephanie Adams (stephanadams175@example.com)']</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>.userpicture</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>//option[. = 'Lao Cai (laocai154@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Charles Bailey (charlesbailey342@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Frances Banks (francesbanks231@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Pamela Berry (pamelaberry239@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Angela Bowman (angelabowman379@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Laura Carpenter (lauracarpent182@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Paul Castillo (paulcastill270@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Mary Cooper (marycooper219@example.com)']</t>
+  </si>
+  <si>
+    <t>//option[. = 'Catherine Cruz (cathericruz306@example.com)']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -85,6 +200,17 @@
       <color theme="1"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -113,6 +239,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -122,6 +257,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -456,4 +595,660 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="48.88"/>
+    <col customWidth="1" min="2" max="2" width="44.25"/>
+    <col customWidth="1" min="3" max="3" width="25.5"/>
+    <col customWidth="1" min="4" max="4" width="25.13"/>
+    <col customWidth="1" min="7" max="7" width="17.63"/>
+    <col customWidth="1" min="8" max="13" width="21.13"/>
+    <col customWidth="1" min="14" max="14" width="65.13"/>
+    <col customWidth="1" min="15" max="15" width="15.13"/>
+    <col customWidth="1" min="16" max="16" width="18.38"/>
+    <col customWidth="1" min="17" max="17" width="16.88"/>
+    <col customWidth="1" min="18" max="18" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+  </hyperlinks>
+  <drawing r:id="rId11"/>
+</worksheet>
 </file>